--- a/biology/Botanique/Malaxis_monophyllos/Malaxis_monophyllos.xlsx
+++ b/biology/Botanique/Malaxis_monophyllos/Malaxis_monophyllos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Malaxis à une feuille (Malaxis monophyllos) est une espèce de plantes grêle de la famille des Orchidées[2],[3], présente dans une grande partie de l'Europe[3],[4] et de l'Asie, ainsi que dans le sud du Canada[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Malaxis à une feuille (Malaxis monophyllos) est une espèce de plantes grêle de la famille des Orchidées présente dans une grande partie de l'Europe, et de l'Asie, ainsi que dans le sud du Canada,.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,14 +553,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Plants of the World online (POWO)                (15 novembre 2020)[7] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (15 novembre 2020) :
 Achroanthes monophyllos (L.) Greene
 Epipactis monophylla (L.) F.W.Schmidt
 Microstylis monophyllos (L.) Lindl.
-Ophrys monophyllos L.
-Taxons infraspécifiques
-Selon Plants of the World online (POWO)                (15 novembre 2020)[7] :
+Ophrys monophyllos L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malaxis_monophyllos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malaxis_monophyllos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (15 novembre 2020) :
 Malaxis monophyllos var. brachypoda (A.Gray) P.Morris &amp; Eames
 Malaxis monophyllos var. monophyllos
 Malaxis monophyllos var. obtusa Tsukaya &amp; H.Okada</t>
